--- a/RGV410046/data/faostat/producao.xlsx
+++ b/RGV410046/data/faostat/producao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\UFSC\aulas\classes\RGV410046\data\faostat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E479696-359D-4886-8849-6AEC83C59A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EDC372-7174-4C2F-B1DA-E5093AAC37B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -18020,12 +18020,12 @@
   <dimension ref="A1:B5979"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
